--- a/gantt-chart_docally.xlsx
+++ b/gantt-chart_docally.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhattaa1/my_workspace/ajanta/code/planning/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5C497F-D31D-EF4E-9C39-AB4223D80E97}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="19300"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -28,18 +22,23 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vertex42</author>
     <author>Vertex42.com Templates</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -285,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -429,12 +428,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vertex42</author>
   </authors>
   <commentList>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,15 +451,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="165">
   <si>
     <t>[Company Name]</t>
   </si>
   <si>
     <t>WBS</t>
-  </si>
-  <si>
-    <t>[Project Name] Project Schedule</t>
   </si>
   <si>
     <t>TEMPLATE ROWS</t>
@@ -557,7 +553,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> is similar to this free version, but</t>
     </r>
@@ -1529,21 +1524,9 @@
     </r>
   </si>
   <si>
-    <t>Billing Dashboard</t>
-  </si>
-  <si>
-    <t>Billing Alerts</t>
-  </si>
-  <si>
     <t>Arindam</t>
   </si>
   <si>
-    <t>Billing</t>
-  </si>
-  <si>
-    <t>Usage</t>
-  </si>
-  <si>
     <t>Infrastructure Cost Optimization</t>
   </si>
   <si>
@@ -1553,30 +1536,9 @@
     <t>Cost Awareness</t>
   </si>
   <si>
-    <t>Usage Alerts</t>
-  </si>
-  <si>
-    <t>Usage Dashboard by services</t>
-  </si>
-  <si>
-    <t>Application Batch 1</t>
-  </si>
-  <si>
-    <t>Application Batch 2</t>
-  </si>
-  <si>
-    <t>Application Batch 3</t>
-  </si>
-  <si>
-    <t>One Click Deployment</t>
-  </si>
-  <si>
     <t>Deployment Pipeline</t>
   </si>
   <si>
-    <t>Continuous Deployment Pipeline</t>
-  </si>
-  <si>
     <t>Automated Infra provision</t>
   </si>
   <si>
@@ -1586,23 +1548,74 @@
     <t>Automated Dev Env Spin Up and down</t>
   </si>
   <si>
-    <t>Automated Test/Demo Env Spin Up  and down</t>
-  </si>
-  <si>
     <t>Automated Production Env Spin Up  and down</t>
+  </si>
+  <si>
+    <t>POE@Docally Project Schedule</t>
+  </si>
+  <si>
+    <t>Dark Sky: Deploy from ECR</t>
+  </si>
+  <si>
+    <t>Dark Sky: Deploy using pipeline</t>
+  </si>
+  <si>
+    <t>Dark Sky: Spin off Environment with ECS</t>
+  </si>
+  <si>
+    <t>Automated Test/Staging Env Spin Up  and down</t>
+  </si>
+  <si>
+    <t>Not Planned</t>
+  </si>
+  <si>
+    <t>Release Shadow</t>
+  </si>
+  <si>
+    <t>Deploy from ECR</t>
+  </si>
+  <si>
+    <t>Application 1</t>
+  </si>
+  <si>
+    <t>Application 2</t>
+  </si>
+  <si>
+    <t>Application 3</t>
+  </si>
+  <si>
+    <t>CI &amp; CD</t>
+  </si>
+  <si>
+    <t>Basic Alerts &amp; Dashboards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisioned/Automated Dashboards </t>
+  </si>
+  <si>
+    <t>Usage per environment</t>
+  </si>
+  <si>
+    <t>Billing per environment</t>
+  </si>
+  <si>
+    <t>More to be identified</t>
+  </si>
+  <si>
+    <t>Not planned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="74">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2076,8 +2089,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2214,6 +2239,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2ECD5"/>
+        <bgColor rgb="FFD6F4D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -2502,7 +2533,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2550,8 +2581,30 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2956,24 +3009,6 @@
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2981,15 +3016,36 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="75" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="66">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -3018,6 +3074,28 @@
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
@@ -3049,6 +3127,78 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3059,6 +3209,16 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3111,68 +3271,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3279,15 +3377,15 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>234647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3418,7 @@
           </a:outerShdw>
         </a:effectLst>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+          <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
           </a:ext>
         </a:extLst>
@@ -3350,14 +3448,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3365,12 +3460,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -3401,7 +3490,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,14 +3525,14 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
@@ -3453,7 +3542,7 @@
               <a:tailEnd/>
             </a14:hiddenLine>
           </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
@@ -3485,7 +3574,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3629,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3595,7 +3684,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,7 +3762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Arial">
       <a:majorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3708,7 +3797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3916,18 +4005,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet8">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN42"/>
+  <dimension ref="A1:BN45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -3944,7 +4033,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1">
       <c r="A1" s="125" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -3952,29 +4041,29 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="132"/>
-      <c r="K1" s="169" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
+      <c r="K1" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1">
       <c r="A2" s="52" t="s">
@@ -3987,7 +4076,7 @@
       <c r="F2" s="160"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="14">
+    <row r="3" spans="1:66" ht="13">
       <c r="A3" s="52"/>
       <c r="B3" s="48"/>
       <c r="C3" s="4"/>
@@ -4017,198 +4106,198 @@
     <row r="4" spans="1:66" ht="17.25" customHeight="1">
       <c r="A4" s="110"/>
       <c r="B4" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="171">
+        <v>76</v>
+      </c>
+      <c r="C4" s="168">
         <v>43603</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
       <c r="F4" s="111"/>
       <c r="G4" s="114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="129">
         <v>1</v>
       </c>
       <c r="I4" s="112"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="163" t="str">
+      <c r="K4" s="165" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="163" t="str">
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="165" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="164"/>
-      <c r="W4" s="164"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="163" t="str">
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="165" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="164"/>
-      <c r="AA4" s="164"/>
-      <c r="AB4" s="164"/>
-      <c r="AC4" s="164"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="163" t="str">
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="166"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="165" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="164"/>
-      <c r="AI4" s="164"/>
-      <c r="AJ4" s="164"/>
-      <c r="AK4" s="164"/>
-      <c r="AL4" s="165"/>
-      <c r="AM4" s="163" t="str">
+      <c r="AG4" s="166"/>
+      <c r="AH4" s="166"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="166"/>
+      <c r="AK4" s="166"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="165" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="164"/>
-      <c r="AO4" s="164"/>
-      <c r="AP4" s="164"/>
-      <c r="AQ4" s="164"/>
-      <c r="AR4" s="164"/>
-      <c r="AS4" s="165"/>
-      <c r="AT4" s="163" t="str">
+      <c r="AN4" s="166"/>
+      <c r="AO4" s="166"/>
+      <c r="AP4" s="166"/>
+      <c r="AQ4" s="166"/>
+      <c r="AR4" s="166"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="165" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="164"/>
-      <c r="AW4" s="164"/>
-      <c r="AX4" s="164"/>
-      <c r="AY4" s="164"/>
-      <c r="AZ4" s="165"/>
-      <c r="BA4" s="163" t="str">
+      <c r="AU4" s="166"/>
+      <c r="AV4" s="166"/>
+      <c r="AW4" s="166"/>
+      <c r="AX4" s="166"/>
+      <c r="AY4" s="166"/>
+      <c r="AZ4" s="167"/>
+      <c r="BA4" s="165" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="164"/>
-      <c r="BC4" s="164"/>
-      <c r="BD4" s="164"/>
-      <c r="BE4" s="164"/>
-      <c r="BF4" s="164"/>
-      <c r="BG4" s="165"/>
-      <c r="BH4" s="163" t="str">
+      <c r="BB4" s="166"/>
+      <c r="BC4" s="166"/>
+      <c r="BD4" s="166"/>
+      <c r="BE4" s="166"/>
+      <c r="BF4" s="166"/>
+      <c r="BG4" s="167"/>
+      <c r="BH4" s="165" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="164"/>
-      <c r="BJ4" s="164"/>
-      <c r="BK4" s="164"/>
-      <c r="BL4" s="164"/>
-      <c r="BM4" s="164"/>
-      <c r="BN4" s="165"/>
+      <c r="BI4" s="166"/>
+      <c r="BJ4" s="166"/>
+      <c r="BK4" s="166"/>
+      <c r="BL4" s="166"/>
+      <c r="BM4" s="166"/>
+      <c r="BN4" s="167"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1">
       <c r="A5" s="110"/>
       <c r="B5" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="170" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
+        <v>77</v>
+      </c>
+      <c r="C5" s="164" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="113"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="166">
+      <c r="K5" s="169">
         <f>K6</f>
         <v>43598</v>
       </c>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="166">
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="169">
         <f>R6</f>
         <v>43605</v>
       </c>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="166">
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="170"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="169">
         <f>Y6</f>
         <v>43612</v>
       </c>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="166">
+      <c r="Z5" s="170"/>
+      <c r="AA5" s="170"/>
+      <c r="AB5" s="170"/>
+      <c r="AC5" s="170"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="169">
         <f>AF6</f>
         <v>43619</v>
       </c>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="168"/>
-      <c r="AM5" s="166">
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="169">
         <f>AM6</f>
         <v>43626</v>
       </c>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="167"/>
-      <c r="AP5" s="167"/>
-      <c r="AQ5" s="167"/>
-      <c r="AR5" s="167"/>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="166">
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="170"/>
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="170"/>
+      <c r="AS5" s="171"/>
+      <c r="AT5" s="169">
         <f>AT6</f>
         <v>43633</v>
       </c>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="167"/>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="167"/>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="166">
+      <c r="AU5" s="170"/>
+      <c r="AV5" s="170"/>
+      <c r="AW5" s="170"/>
+      <c r="AX5" s="170"/>
+      <c r="AY5" s="170"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="169">
         <f>BA6</f>
         <v>43640</v>
       </c>
-      <c r="BB5" s="167"/>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="167"/>
-      <c r="BE5" s="167"/>
-      <c r="BF5" s="167"/>
-      <c r="BG5" s="168"/>
-      <c r="BH5" s="166">
+      <c r="BB5" s="170"/>
+      <c r="BC5" s="170"/>
+      <c r="BD5" s="170"/>
+      <c r="BE5" s="170"/>
+      <c r="BF5" s="170"/>
+      <c r="BG5" s="171"/>
+      <c r="BH5" s="169">
         <f>BH6</f>
         <v>43647</v>
       </c>
-      <c r="BI5" s="167"/>
-      <c r="BJ5" s="167"/>
-      <c r="BK5" s="167"/>
-      <c r="BL5" s="167"/>
-      <c r="BM5" s="167"/>
-      <c r="BN5" s="168"/>
+      <c r="BI5" s="170"/>
+      <c r="BJ5" s="170"/>
+      <c r="BK5" s="170"/>
+      <c r="BL5" s="170"/>
+      <c r="BM5" s="170"/>
+      <c r="BN5" s="171"/>
     </row>
     <row r="6" spans="1:66">
       <c r="A6" s="49"/>
@@ -4446,33 +4535,33 @@
         <v>43653</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="124" customFormat="1" ht="25" thickBot="1">
+    <row r="7" spans="1:66" s="124" customFormat="1" ht="23" thickBot="1">
       <c r="A7" s="116" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="D7" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="120" t="s">
+      <c r="F7" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="G7" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="118" t="s">
+      <c r="H7" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="118" t="s">
+      <c r="I7" s="118" t="s">
         <v>73</v>
-      </c>
-      <c r="I7" s="118" t="s">
-        <v>74</v>
       </c>
       <c r="J7" s="118"/>
       <c r="K7" s="121" t="str">
@@ -4700,13 +4789,13 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="55" customFormat="1" ht="18">
+    <row r="8" spans="1:66" s="55" customFormat="1" ht="17">
       <c r="A8" s="84" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C8" s="86"/>
       <c r="D8" s="87"/>
@@ -4718,7 +4807,7 @@
       <c r="G8" s="89"/>
       <c r="H8" s="90"/>
       <c r="I8" s="91" t="str">
-        <f t="shared" ref="I8:I35" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I38" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="94"/>
@@ -4779,28 +4868,28 @@
       <c r="BM8" s="106"/>
       <c r="BN8" s="106"/>
     </row>
-    <row r="9" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="9" spans="1:66" s="61" customFormat="1" ht="22">
       <c r="A9" s="60" t="str">
-        <f t="shared" ref="A9:A12" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="126" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="127"/>
       <c r="E9" s="100">
-        <f>$C$4</f>
-        <v>43603</v>
+        <f>F35+1</f>
+        <v>43631</v>
       </c>
       <c r="F9" s="101">
-        <f t="shared" ref="F9:F33" si="6">IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>43606</v>
+        <f t="shared" ref="F9:F36" si="6">IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
+        <v>43634</v>
       </c>
       <c r="G9" s="62">
-        <f>SUM(G10:G11)</f>
+        <f>SUM(G11:G12)</f>
         <v>4</v>
       </c>
       <c r="H9" s="63">
@@ -4868,33 +4957,20 @@
       <c r="BM9" s="107"/>
       <c r="BN9" s="107"/>
     </row>
-    <row r="10" spans="1:66" s="61" customFormat="1" ht="18">
-      <c r="A10" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>140</v>
+    <row r="10" spans="1:66" s="61" customFormat="1" ht="22">
+      <c r="A10" s="60"/>
+      <c r="B10" s="126" t="s">
+        <v>160</v>
       </c>
       <c r="D10" s="127"/>
       <c r="E10" s="100">
-        <f>E9</f>
-        <v>43603</v>
-      </c>
-      <c r="F10" s="101">
-        <f t="shared" si="6"/>
-        <v>43604</v>
-      </c>
-      <c r="G10" s="62">
-        <v>2</v>
-      </c>
-      <c r="H10" s="63">
-        <v>0</v>
-      </c>
-      <c r="I10" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f>E11</f>
+        <v>43711</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="95"/>
       <c r="K10" s="107"/>
       <c r="L10" s="107"/>
@@ -4953,28 +5029,28 @@
       <c r="BM10" s="107"/>
       <c r="BN10" s="107"/>
     </row>
-    <row r="11" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="11" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A11" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.2</v>
+        <v>0.0.1</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D11" s="127"/>
       <c r="E11" s="100">
-        <f>F10+1</f>
-        <v>43605</v>
+        <f>F23+1</f>
+        <v>43711</v>
       </c>
       <c r="F11" s="101">
         <f t="shared" si="6"/>
-        <v>43606</v>
+        <v>43712</v>
       </c>
       <c r="G11" s="62">
         <v>2</v>
       </c>
       <c r="H11" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="64">
         <f t="shared" si="4"/>
@@ -4983,7 +5059,7 @@
       <c r="J11" s="95"/>
       <c r="K11" s="107"/>
       <c r="L11" s="107"/>
-      <c r="M11" s="108"/>
+      <c r="M11" s="107"/>
       <c r="N11" s="107"/>
       <c r="O11" s="107"/>
       <c r="P11" s="107"/>
@@ -5038,38 +5114,37 @@
       <c r="BM11" s="107"/>
       <c r="BN11" s="107"/>
     </row>
-    <row r="12" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="12" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A12" s="60" t="str">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="B12" s="126" t="s">
-        <v>143</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>0.0.2</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>162</v>
       </c>
       <c r="D12" s="127"/>
       <c r="E12" s="100">
         <f>F11+1</f>
-        <v>43607</v>
+        <v>43713</v>
       </c>
       <c r="F12" s="101">
         <f t="shared" si="6"/>
-        <v>43610</v>
+        <v>43714</v>
       </c>
       <c r="G12" s="62">
-        <f>SUM(G13:G14)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="63">
         <v>0</v>
       </c>
       <c r="I12" s="64">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="95"/>
       <c r="K12" s="107"/>
       <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
+      <c r="M12" s="108"/>
       <c r="N12" s="107"/>
       <c r="O12" s="107"/>
       <c r="P12" s="107"/>
@@ -5124,22 +5199,25 @@
       <c r="BM12" s="107"/>
       <c r="BN12" s="107"/>
     </row>
-    <row r="13" spans="1:66" s="61" customFormat="1" ht="24">
+    <row r="13" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A13" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.1</v>
+        <v>0.0.3</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>148</v>
+        <v>163</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>164</v>
       </c>
       <c r="D13" s="127"/>
       <c r="E13" s="100">
-        <f t="shared" ref="E13:E14" si="7">F12+1</f>
-        <v>43611</v>
+        <f>F12+1</f>
+        <v>43715</v>
       </c>
       <c r="F13" s="101">
         <f t="shared" si="6"/>
-        <v>43612</v>
+        <v>43716</v>
       </c>
       <c r="G13" s="62">
         <v>2</v>
@@ -5149,7 +5227,7 @@
       </c>
       <c r="I13" s="64">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="95"/>
       <c r="K13" s="107"/>
@@ -5209,197 +5287,195 @@
       <c r="BM13" s="107"/>
       <c r="BN13" s="107"/>
     </row>
-    <row r="14" spans="1:66" s="61" customFormat="1" ht="18">
-      <c r="A14" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.2</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="100">
-        <f t="shared" si="7"/>
-        <v>43613</v>
-      </c>
-      <c r="F14" s="101">
-        <f t="shared" si="6"/>
-        <v>43614</v>
-      </c>
-      <c r="G14" s="62">
-        <v>2</v>
-      </c>
-      <c r="H14" s="63">
-        <v>0</v>
-      </c>
-      <c r="I14" s="64">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="107"/>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="107"/>
-      <c r="AL14" s="107"/>
-      <c r="AM14" s="107"/>
-      <c r="AN14" s="107"/>
-      <c r="AO14" s="107"/>
-      <c r="AP14" s="107"/>
-      <c r="AQ14" s="107"/>
-      <c r="AR14" s="107"/>
-      <c r="AS14" s="107"/>
-      <c r="AT14" s="107"/>
-      <c r="AU14" s="107"/>
-      <c r="AV14" s="107"/>
-      <c r="AW14" s="107"/>
-      <c r="AX14" s="107"/>
-      <c r="AY14" s="107"/>
-      <c r="AZ14" s="107"/>
-      <c r="BA14" s="107"/>
-      <c r="BB14" s="107"/>
-      <c r="BC14" s="107"/>
-      <c r="BD14" s="107"/>
-      <c r="BE14" s="107"/>
-      <c r="BF14" s="107"/>
-      <c r="BG14" s="107"/>
-      <c r="BH14" s="107"/>
-      <c r="BI14" s="107"/>
-      <c r="BJ14" s="107"/>
-      <c r="BK14" s="107"/>
-      <c r="BL14" s="107"/>
-      <c r="BM14" s="107"/>
-      <c r="BN14" s="107"/>
-    </row>
-    <row r="15" spans="1:66" s="55" customFormat="1" ht="18">
-      <c r="A15" s="53" t="str">
+    <row r="14" spans="1:66" s="55" customFormat="1" ht="17">
+      <c r="A14" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102" t="str">
+        <v>1</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59" t="str">
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="109"/>
-      <c r="AE15" s="109"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="109"/>
-      <c r="AM15" s="109"/>
-      <c r="AN15" s="109"/>
-      <c r="AO15" s="109"/>
-      <c r="AP15" s="109"/>
-      <c r="AQ15" s="109"/>
-      <c r="AR15" s="109"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="109"/>
-      <c r="AV15" s="109"/>
-      <c r="AW15" s="109"/>
-      <c r="AX15" s="109"/>
-      <c r="AY15" s="109"/>
-      <c r="AZ15" s="109"/>
-      <c r="BA15" s="109"/>
-      <c r="BB15" s="109"/>
-      <c r="BC15" s="109"/>
-      <c r="BD15" s="109"/>
-      <c r="BE15" s="109"/>
-      <c r="BF15" s="109"/>
-      <c r="BG15" s="109"/>
-      <c r="BH15" s="109"/>
-      <c r="BI15" s="109"/>
-      <c r="BJ15" s="109"/>
-      <c r="BK15" s="109"/>
-      <c r="BL15" s="109"/>
-      <c r="BM15" s="109"/>
-      <c r="BN15" s="109"/>
-    </row>
-    <row r="16" spans="1:66" s="61" customFormat="1" ht="18">
+      <c r="J14" s="96"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
+      <c r="AE14" s="109"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="109"/>
+      <c r="AH14" s="109"/>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="109"/>
+      <c r="AM14" s="109"/>
+      <c r="AN14" s="109"/>
+      <c r="AO14" s="109"/>
+      <c r="AP14" s="109"/>
+      <c r="AQ14" s="109"/>
+      <c r="AR14" s="109"/>
+      <c r="AS14" s="109"/>
+      <c r="AT14" s="109"/>
+      <c r="AU14" s="109"/>
+      <c r="AV14" s="109"/>
+      <c r="AW14" s="109"/>
+      <c r="AX14" s="109"/>
+      <c r="AY14" s="109"/>
+      <c r="AZ14" s="109"/>
+      <c r="BA14" s="109"/>
+      <c r="BB14" s="109"/>
+      <c r="BC14" s="109"/>
+      <c r="BD14" s="109"/>
+      <c r="BE14" s="109"/>
+      <c r="BF14" s="109"/>
+      <c r="BG14" s="109"/>
+      <c r="BH14" s="109"/>
+      <c r="BI14" s="109"/>
+      <c r="BJ14" s="109"/>
+      <c r="BK14" s="109"/>
+      <c r="BL14" s="109"/>
+      <c r="BM14" s="109"/>
+      <c r="BN14" s="109"/>
+    </row>
+    <row r="15" spans="1:66" s="61" customFormat="1" ht="17">
+      <c r="A15" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B15" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="127"/>
+      <c r="E15" s="100">
+        <f>F9+1</f>
+        <v>43635</v>
+      </c>
+      <c r="F15" s="101">
+        <f t="shared" si="6"/>
+        <v>43635</v>
+      </c>
+      <c r="G15" s="62">
+        <v>1</v>
+      </c>
+      <c r="H15" s="63">
+        <v>0</v>
+      </c>
+      <c r="I15" s="64">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="95"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="107"/>
+      <c r="AY15" s="107"/>
+      <c r="AZ15" s="107"/>
+      <c r="BA15" s="107"/>
+      <c r="BB15" s="107"/>
+      <c r="BC15" s="107"/>
+      <c r="BD15" s="107"/>
+      <c r="BE15" s="107"/>
+      <c r="BF15" s="107"/>
+      <c r="BG15" s="107"/>
+      <c r="BH15" s="107"/>
+      <c r="BI15" s="107"/>
+      <c r="BJ15" s="107"/>
+      <c r="BK15" s="107"/>
+      <c r="BL15" s="107"/>
+      <c r="BM15" s="107"/>
+      <c r="BN15" s="107"/>
+    </row>
+    <row r="16" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A16" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="B16" s="126" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D16" s="127"/>
       <c r="E16" s="100">
-        <f>F14+1</f>
-        <v>43615</v>
+        <f>F15+1</f>
+        <v>43636</v>
       </c>
       <c r="F16" s="101">
         <f t="shared" si="6"/>
-        <v>43659</v>
+        <v>43680</v>
       </c>
       <c r="G16" s="62">
         <f>SUM(G17:G19)</f>
         <v>45</v>
       </c>
-      <c r="H16" s="63">
-        <v>0</v>
-      </c>
-      <c r="I16" s="64">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="95"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
@@ -5458,22 +5534,25 @@
       <c r="BM16" s="107"/>
       <c r="BN16" s="107"/>
     </row>
-    <row r="17" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="17" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A17" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.1</v>
+        <v>1.2.1</v>
       </c>
       <c r="B17" s="128" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D17" s="127"/>
       <c r="E17" s="100">
-        <f>E16</f>
-        <v>43615</v>
+        <f>F15+1</f>
+        <v>43636</v>
       </c>
       <c r="F17" s="101">
         <f t="shared" si="6"/>
-        <v>43629</v>
+        <v>43650</v>
       </c>
       <c r="G17" s="62">
         <v>15</v>
@@ -5543,22 +5622,25 @@
       <c r="BM17" s="107"/>
       <c r="BN17" s="107"/>
     </row>
-    <row r="18" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="18" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A18" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.2</v>
+        <v>1.2.2</v>
       </c>
       <c r="B18" s="128" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D18" s="127"/>
       <c r="E18" s="100">
         <f>F17+1</f>
-        <v>43630</v>
+        <v>43651</v>
       </c>
       <c r="F18" s="101">
         <f t="shared" si="6"/>
-        <v>43644</v>
+        <v>43665</v>
       </c>
       <c r="G18" s="62">
         <v>15</v>
@@ -5628,22 +5710,25 @@
       <c r="BM18" s="107"/>
       <c r="BN18" s="107"/>
     </row>
-    <row r="19" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="19" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A19" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.3</v>
+        <v>1.2.3</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D19" s="127"/>
       <c r="E19" s="100">
         <f>F18+1</f>
-        <v>43645</v>
+        <v>43666</v>
       </c>
       <c r="F19" s="101">
         <f t="shared" si="6"/>
-        <v>43659</v>
+        <v>43680</v>
       </c>
       <c r="G19" s="62">
         <v>15</v>
@@ -5713,22 +5798,22 @@
       <c r="BM19" s="107"/>
       <c r="BN19" s="107"/>
     </row>
-    <row r="20" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="20" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A20" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="B20" s="126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D20" s="127"/>
       <c r="E20" s="100">
         <f>F19+1</f>
-        <v>43660</v>
+        <v>43681</v>
       </c>
       <c r="F20" s="101">
-        <f t="shared" ref="F20:F23" si="8">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>43689</v>
+        <f t="shared" ref="F20:F23" si="7">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>43710</v>
       </c>
       <c r="G20" s="62">
         <f>SUM(G21:G23)</f>
@@ -5738,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="64">
-        <f t="shared" ref="I20:I23" si="9">IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
+        <f t="shared" ref="I20:I23" si="8">IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
         <v>21</v>
       </c>
       <c r="J20" s="95"/>
@@ -5799,22 +5884,25 @@
       <c r="BM20" s="107"/>
       <c r="BN20" s="107"/>
     </row>
-    <row r="21" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="21" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A21" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.1</v>
+        <v>1.3.1</v>
       </c>
       <c r="B21" s="128" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D21" s="127"/>
       <c r="E21" s="100">
         <f>E20</f>
-        <v>43660</v>
+        <v>43681</v>
       </c>
       <c r="F21" s="101">
-        <f t="shared" si="8"/>
-        <v>43669</v>
+        <f t="shared" si="7"/>
+        <v>43690</v>
       </c>
       <c r="G21" s="62">
         <v>10</v>
@@ -5823,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="J21" s="95"/>
@@ -5884,22 +5972,25 @@
       <c r="BM21" s="107"/>
       <c r="BN21" s="107"/>
     </row>
-    <row r="22" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="22" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A22" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.2</v>
+        <v>1.3.2</v>
       </c>
       <c r="B22" s="128" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D22" s="127"/>
       <c r="E22" s="100">
         <f>F21+1</f>
-        <v>43670</v>
+        <v>43691</v>
       </c>
       <c r="F22" s="101">
-        <f t="shared" si="8"/>
-        <v>43679</v>
+        <f t="shared" si="7"/>
+        <v>43700</v>
       </c>
       <c r="G22" s="62">
         <v>10</v>
@@ -5908,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="J22" s="95"/>
@@ -5969,22 +6060,25 @@
       <c r="BM22" s="107"/>
       <c r="BN22" s="107"/>
     </row>
-    <row r="23" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="23" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A23" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.3</v>
+        <v>1.3.3</v>
       </c>
       <c r="B23" s="128" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D23" s="127"/>
       <c r="E23" s="100">
         <f>F22+1</f>
-        <v>43680</v>
+        <v>43701</v>
       </c>
       <c r="F23" s="101">
-        <f t="shared" si="8"/>
-        <v>43689</v>
+        <f t="shared" si="7"/>
+        <v>43710</v>
       </c>
       <c r="G23" s="62">
         <v>10</v>
@@ -5993,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="J23" s="95"/>
@@ -6054,33 +6148,33 @@
       <c r="BM23" s="107"/>
       <c r="BN23" s="107"/>
     </row>
-    <row r="24" spans="1:66" s="61" customFormat="1" ht="24">
+    <row r="24" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A24" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="B24" s="126" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D24" s="127"/>
       <c r="E24" s="100">
         <f>F23+1</f>
-        <v>43690</v>
+        <v>43711</v>
       </c>
       <c r="F24" s="101">
-        <f t="shared" ref="F24:F27" si="10">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v>43704</v>
+        <f t="shared" ref="F24:F27" si="9">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+        <v>43711</v>
       </c>
       <c r="G24" s="62">
         <f>SUM(G25:G27)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" s="63">
         <v>0</v>
       </c>
       <c r="I24" s="64">
-        <f t="shared" ref="I24:I27" si="11">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
-        <v>11</v>
+        <f t="shared" ref="I24:I27" si="10">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
+        <v>1</v>
       </c>
       <c r="J24" s="95"/>
       <c r="K24" s="107"/>
@@ -6140,32 +6234,30 @@
       <c r="BM24" s="107"/>
       <c r="BN24" s="107"/>
     </row>
-    <row r="25" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="25" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A25" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.1</v>
+        <v>1.4.1</v>
       </c>
       <c r="B25" s="128" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="D25" s="127"/>
-      <c r="E25" s="100">
-        <f>E24</f>
-        <v>43690</v>
-      </c>
-      <c r="F25" s="101">
-        <f t="shared" si="10"/>
-        <v>43694</v>
-      </c>
-      <c r="G25" s="62">
-        <v>5</v>
-      </c>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G25" s="62"/>
       <c r="H25" s="63">
         <v>0</v>
       </c>
-      <c r="I25" s="64">
-        <f t="shared" si="11"/>
-        <v>4</v>
+      <c r="I25" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="J25" s="95"/>
       <c r="K25" s="107"/>
@@ -6225,32 +6317,30 @@
       <c r="BM25" s="107"/>
       <c r="BN25" s="107"/>
     </row>
-    <row r="26" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="26" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A26" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.2</v>
+        <v>1.4.2</v>
       </c>
       <c r="B26" s="128" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="D26" s="127"/>
-      <c r="E26" s="100">
-        <f>F25+1</f>
-        <v>43695</v>
-      </c>
-      <c r="F26" s="101">
-        <f t="shared" si="10"/>
-        <v>43699</v>
-      </c>
-      <c r="G26" s="62">
-        <v>5</v>
-      </c>
+      <c r="E26" s="173"/>
+      <c r="F26" s="101" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G26" s="62"/>
       <c r="H26" s="63">
         <v>0</v>
       </c>
-      <c r="I26" s="64">
-        <f t="shared" si="11"/>
-        <v>4</v>
+      <c r="I26" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="J26" s="95"/>
       <c r="K26" s="107"/>
@@ -6310,32 +6400,30 @@
       <c r="BM26" s="107"/>
       <c r="BN26" s="107"/>
     </row>
-    <row r="27" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="27" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A27" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.3</v>
+        <v>1.4.3</v>
       </c>
       <c r="B27" s="128" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="D27" s="127"/>
-      <c r="E27" s="100">
-        <f>F26+1</f>
-        <v>43700</v>
-      </c>
-      <c r="F27" s="101">
-        <f t="shared" si="10"/>
-        <v>43704</v>
-      </c>
-      <c r="G27" s="62">
-        <v>5</v>
-      </c>
+      <c r="E27" s="173"/>
+      <c r="F27" s="101" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G27" s="62"/>
       <c r="H27" s="63">
         <v>0</v>
       </c>
-      <c r="I27" s="64">
-        <f t="shared" si="11"/>
-        <v>3</v>
+      <c r="I27" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="J27" s="95"/>
       <c r="K27" s="107"/>
@@ -6395,13 +6483,13 @@
       <c r="BM27" s="107"/>
       <c r="BN27" s="107"/>
     </row>
-    <row r="28" spans="1:66" s="55" customFormat="1" ht="18">
+    <row r="28" spans="1:66" s="55" customFormat="1" ht="17">
       <c r="A28" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="102"/>
@@ -6473,25 +6561,25 @@
       <c r="BM28" s="109"/>
       <c r="BN28" s="109"/>
     </row>
-    <row r="29" spans="1:66" s="61" customFormat="1" ht="18">
+    <row r="29" spans="1:66" s="61" customFormat="1" ht="17">
       <c r="A29" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="B29" s="126" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="100">
-        <f>F27+1</f>
-        <v>43705</v>
+        <f>F20+1</f>
+        <v>43711</v>
       </c>
       <c r="F29" s="101">
         <f t="shared" si="6"/>
-        <v>43719</v>
+        <v>43725</v>
       </c>
       <c r="G29" s="62">
-        <f>SUM(G30:G32)</f>
+        <f>SUM(G33:G35)</f>
         <v>15</v>
       </c>
       <c r="H29" s="63">
@@ -6559,32 +6647,35 @@
       <c r="BM29" s="107"/>
       <c r="BN29" s="107"/>
     </row>
-    <row r="30" spans="1:66" s="61" customFormat="1" ht="24">
+    <row r="30" spans="1:66" s="61" customFormat="1" ht="22">
       <c r="A30" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
+        <v>2.1.1</v>
       </c>
       <c r="B30" s="128" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D30" s="127"/>
       <c r="E30" s="100">
-        <f>F29+1</f>
-        <v>43720</v>
+        <f>$C$4</f>
+        <v>43603</v>
       </c>
       <c r="F30" s="101">
-        <f t="shared" si="6"/>
-        <v>43724</v>
+        <f t="shared" ref="F30:F33" si="11">IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
+        <v>43606</v>
       </c>
       <c r="G30" s="62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" s="63">
         <v>0</v>
       </c>
       <c r="I30" s="64">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="95"/>
       <c r="K30" s="107"/>
@@ -6644,32 +6735,35 @@
       <c r="BM30" s="107"/>
       <c r="BN30" s="107"/>
     </row>
-    <row r="31" spans="1:66" s="61" customFormat="1" ht="24">
+    <row r="31" spans="1:66" s="61" customFormat="1" ht="22">
       <c r="A31" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.2</v>
+        <v>2.1.2</v>
       </c>
       <c r="B31" s="128" t="s">
-        <v>158</v>
+        <v>148</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D31" s="127"/>
       <c r="E31" s="100">
-        <f>F30+1</f>
-        <v>43725</v>
+        <f t="shared" ref="E31:E32" si="12">F30+1</f>
+        <v>43607</v>
       </c>
       <c r="F31" s="101">
-        <f t="shared" si="6"/>
-        <v>43729</v>
+        <f t="shared" si="11"/>
+        <v>43610</v>
       </c>
       <c r="G31" s="62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" s="63">
         <v>0</v>
       </c>
       <c r="I31" s="64">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="95"/>
       <c r="K31" s="107"/>
@@ -6729,22 +6823,25 @@
       <c r="BM31" s="107"/>
       <c r="BN31" s="107"/>
     </row>
-    <row r="32" spans="1:66" s="61" customFormat="1" ht="24">
+    <row r="32" spans="1:66" s="61" customFormat="1" ht="22">
       <c r="A32" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.3</v>
+        <v>2.1.3</v>
       </c>
       <c r="B32" s="128" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D32" s="127"/>
       <c r="E32" s="100">
-        <f>F31+1</f>
-        <v>43730</v>
+        <f t="shared" si="12"/>
+        <v>43611</v>
       </c>
       <c r="F32" s="101">
-        <f t="shared" si="6"/>
-        <v>43734</v>
+        <f t="shared" ref="F32" si="13">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>43615</v>
       </c>
       <c r="G32" s="62">
         <v>5</v>
@@ -6753,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I32" si="14">IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
         <v>4</v>
       </c>
       <c r="J32" s="95"/>
@@ -6814,32 +6911,35 @@
       <c r="BM32" s="107"/>
       <c r="BN32" s="107"/>
     </row>
-    <row r="33" spans="1:66" s="61" customFormat="1" ht="24">
+    <row r="33" spans="1:66" s="61" customFormat="1" ht="22">
       <c r="A33" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B33" s="126" t="s">
-        <v>156</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.4</v>
+      </c>
+      <c r="B33" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="D33" s="127"/>
       <c r="E33" s="100">
         <f>F32+1</f>
-        <v>43735</v>
+        <v>43616</v>
       </c>
       <c r="F33" s="101">
-        <f t="shared" si="6"/>
-        <v>43737</v>
+        <f t="shared" si="11"/>
+        <v>43620</v>
       </c>
       <c r="G33" s="62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33" s="63">
         <v>0</v>
       </c>
       <c r="I33" s="64">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" s="95"/>
       <c r="K33" s="107"/>
@@ -6899,20 +6999,37 @@
       <c r="BM33" s="107"/>
       <c r="BN33" s="107"/>
     </row>
-    <row r="34" spans="1:66" s="70" customFormat="1" ht="18">
-      <c r="A34" s="60"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69" t="str">
+    <row r="34" spans="1:66" s="61" customFormat="1" ht="33">
+      <c r="A34" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.5</v>
+      </c>
+      <c r="B34" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="127"/>
+      <c r="E34" s="100">
+        <f>F33+1</f>
+        <v>43621</v>
+      </c>
+      <c r="F34" s="101">
+        <f t="shared" si="6"/>
+        <v>43625</v>
+      </c>
+      <c r="G34" s="62">
+        <v>5</v>
+      </c>
+      <c r="H34" s="63">
+        <v>0</v>
+      </c>
+      <c r="I34" s="64">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J34" s="97"/>
+        <v>3</v>
+      </c>
+      <c r="J34" s="95"/>
       <c r="K34" s="107"/>
       <c r="L34" s="107"/>
       <c r="M34" s="107"/>
@@ -6970,20 +7087,37 @@
       <c r="BM34" s="107"/>
       <c r="BN34" s="107"/>
     </row>
-    <row r="35" spans="1:66" s="70" customFormat="1" ht="18" hidden="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="69" t="str">
+    <row r="35" spans="1:66" s="61" customFormat="1" ht="33">
+      <c r="A35" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.6</v>
+      </c>
+      <c r="B35" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="127"/>
+      <c r="E35" s="100">
+        <f>F34+1</f>
+        <v>43626</v>
+      </c>
+      <c r="F35" s="101">
+        <f t="shared" si="6"/>
+        <v>43630</v>
+      </c>
+      <c r="G35" s="62">
+        <v>5</v>
+      </c>
+      <c r="H35" s="63">
+        <v>0</v>
+      </c>
+      <c r="I35" s="64">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J35" s="97"/>
+        <v>5</v>
+      </c>
+      <c r="J35" s="95"/>
       <c r="K35" s="107"/>
       <c r="L35" s="107"/>
       <c r="M35" s="107"/>
@@ -7041,19 +7175,34 @@
       <c r="BM35" s="107"/>
       <c r="BN35" s="107"/>
     </row>
-    <row r="36" spans="1:66" s="75" customFormat="1" ht="18" hidden="1">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:66" s="61" customFormat="1" ht="22">
+      <c r="A36" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B36" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="127"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G36" s="62">
         <v>3</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="98"/>
+      <c r="H36" s="63">
+        <v>0</v>
+      </c>
+      <c r="I36" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J36" s="95"/>
       <c r="K36" s="107"/>
       <c r="L36" s="107"/>
       <c r="M36" s="107"/>
@@ -7111,19 +7260,20 @@
       <c r="BM36" s="107"/>
       <c r="BN36" s="107"/>
     </row>
-    <row r="37" spans="1:66" s="70" customFormat="1" ht="18" hidden="1">
-      <c r="A37" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="98"/>
+    <row r="37" spans="1:66" s="70" customFormat="1" ht="17">
+      <c r="A37" s="60"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J37" s="97"/>
       <c r="K37" s="107"/>
       <c r="L37" s="107"/>
       <c r="M37" s="107"/>
@@ -7181,28 +7331,20 @@
       <c r="BM37" s="107"/>
       <c r="BN37" s="107"/>
     </row>
-    <row r="38" spans="1:66" s="70" customFormat="1" ht="18" hidden="1">
-      <c r="A38" s="130" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B38" s="131" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="101" t="str">
-        <f t="shared" ref="F38:F41" si="12">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+    <row r="38" spans="1:66" s="70" customFormat="1" ht="17" hidden="1">
+      <c r="A38" s="60"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="69" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G38" s="62"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="80" t="str">
-        <f>IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J38" s="99"/>
+      <c r="J38" s="97"/>
       <c r="K38" s="107"/>
       <c r="L38" s="107"/>
       <c r="M38" s="107"/>
@@ -7260,28 +7402,19 @@
       <c r="BM38" s="107"/>
       <c r="BN38" s="107"/>
     </row>
-    <row r="39" spans="1:66" s="70" customFormat="1" ht="18" hidden="1">
-      <c r="A39" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B39" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="101" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="80" t="str">
-        <f t="shared" ref="I39:I41" si="13">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J39" s="99"/>
+    <row r="39" spans="1:66" s="75" customFormat="1" ht="17" hidden="1">
+      <c r="A39" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="98"/>
       <c r="K39" s="107"/>
       <c r="L39" s="107"/>
       <c r="M39" s="107"/>
@@ -7339,28 +7472,19 @@
       <c r="BM39" s="107"/>
       <c r="BN39" s="107"/>
     </row>
-    <row r="40" spans="1:66" s="70" customFormat="1" ht="18" hidden="1">
-      <c r="A40" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B40" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="80" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J40" s="99"/>
+    <row r="40" spans="1:66" s="70" customFormat="1" ht="17" hidden="1">
+      <c r="A40" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="98"/>
       <c r="K40" s="107"/>
       <c r="L40" s="107"/>
       <c r="M40" s="107"/>
@@ -7418,25 +7542,25 @@
       <c r="BM40" s="107"/>
       <c r="BN40" s="107"/>
     </row>
-    <row r="41" spans="1:66" s="70" customFormat="1" ht="18" hidden="1">
-      <c r="A41" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B41" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="81"/>
+    <row r="41" spans="1:66" s="70" customFormat="1" ht="17" hidden="1">
+      <c r="A41" s="130" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B41" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="78"/>
       <c r="D41" s="79"/>
       <c r="E41" s="100"/>
       <c r="F41" s="101" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F41:F44" si="15">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G41" s="62"/>
       <c r="H41" s="63"/>
       <c r="I41" s="80" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J41" s="99"/>
@@ -7497,86 +7621,314 @@
       <c r="BM41" s="107"/>
       <c r="BN41" s="107"/>
     </row>
-    <row r="42" spans="1:66" s="33" customFormat="1">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
-      <c r="AO42" s="31"/>
-      <c r="AP42" s="31"/>
-      <c r="AQ42" s="31"/>
-      <c r="AR42" s="31"/>
-      <c r="AS42" s="31"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="31"/>
-      <c r="AV42" s="31"/>
-      <c r="AW42" s="31"/>
-      <c r="AX42" s="31"/>
-      <c r="AY42" s="31"/>
-      <c r="AZ42" s="31"/>
-      <c r="BA42" s="31"/>
-      <c r="BB42" s="31"/>
-      <c r="BC42" s="31"/>
-      <c r="BD42" s="31"/>
-      <c r="BE42" s="31"/>
-      <c r="BF42" s="31"/>
-      <c r="BG42" s="31"/>
-      <c r="BH42" s="31"/>
-      <c r="BI42" s="31"/>
-      <c r="BJ42" s="31"/>
-      <c r="BK42" s="31"/>
-      <c r="BL42" s="31"/>
-      <c r="BM42" s="31"/>
-      <c r="BN42" s="31"/>
+    <row r="42" spans="1:66" s="70" customFormat="1" ht="17" hidden="1">
+      <c r="A42" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="81"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="80" t="str">
+        <f t="shared" ref="I42:I44" si="16">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J42" s="99"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="107"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="107"/>
+      <c r="AK42" s="107"/>
+      <c r="AL42" s="107"/>
+      <c r="AM42" s="107"/>
+      <c r="AN42" s="107"/>
+      <c r="AO42" s="107"/>
+      <c r="AP42" s="107"/>
+      <c r="AQ42" s="107"/>
+      <c r="AR42" s="107"/>
+      <c r="AS42" s="107"/>
+      <c r="AT42" s="107"/>
+      <c r="AU42" s="107"/>
+      <c r="AV42" s="107"/>
+      <c r="AW42" s="107"/>
+      <c r="AX42" s="107"/>
+      <c r="AY42" s="107"/>
+      <c r="AZ42" s="107"/>
+      <c r="BA42" s="107"/>
+      <c r="BB42" s="107"/>
+      <c r="BC42" s="107"/>
+      <c r="BD42" s="107"/>
+      <c r="BE42" s="107"/>
+      <c r="BF42" s="107"/>
+      <c r="BG42" s="107"/>
+      <c r="BH42" s="107"/>
+      <c r="BI42" s="107"/>
+      <c r="BJ42" s="107"/>
+      <c r="BK42" s="107"/>
+      <c r="BL42" s="107"/>
+      <c r="BM42" s="107"/>
+      <c r="BN42" s="107"/>
+    </row>
+    <row r="43" spans="1:66" s="70" customFormat="1" ht="17" hidden="1">
+      <c r="A43" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="81"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G43" s="62"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="80" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J43" s="99"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+      <c r="AG43" s="107"/>
+      <c r="AH43" s="107"/>
+      <c r="AI43" s="107"/>
+      <c r="AJ43" s="107"/>
+      <c r="AK43" s="107"/>
+      <c r="AL43" s="107"/>
+      <c r="AM43" s="107"/>
+      <c r="AN43" s="107"/>
+      <c r="AO43" s="107"/>
+      <c r="AP43" s="107"/>
+      <c r="AQ43" s="107"/>
+      <c r="AR43" s="107"/>
+      <c r="AS43" s="107"/>
+      <c r="AT43" s="107"/>
+      <c r="AU43" s="107"/>
+      <c r="AV43" s="107"/>
+      <c r="AW43" s="107"/>
+      <c r="AX43" s="107"/>
+      <c r="AY43" s="107"/>
+      <c r="AZ43" s="107"/>
+      <c r="BA43" s="107"/>
+      <c r="BB43" s="107"/>
+      <c r="BC43" s="107"/>
+      <c r="BD43" s="107"/>
+      <c r="BE43" s="107"/>
+      <c r="BF43" s="107"/>
+      <c r="BG43" s="107"/>
+      <c r="BH43" s="107"/>
+      <c r="BI43" s="107"/>
+      <c r="BJ43" s="107"/>
+      <c r="BK43" s="107"/>
+      <c r="BL43" s="107"/>
+      <c r="BM43" s="107"/>
+      <c r="BN43" s="107"/>
+    </row>
+    <row r="44" spans="1:66" s="70" customFormat="1" ht="17" hidden="1">
+      <c r="A44" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="81"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="101" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G44" s="62"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="80" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J44" s="99"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="107"/>
+      <c r="AB44" s="107"/>
+      <c r="AC44" s="107"/>
+      <c r="AD44" s="107"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="107"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="107"/>
+      <c r="AI44" s="107"/>
+      <c r="AJ44" s="107"/>
+      <c r="AK44" s="107"/>
+      <c r="AL44" s="107"/>
+      <c r="AM44" s="107"/>
+      <c r="AN44" s="107"/>
+      <c r="AO44" s="107"/>
+      <c r="AP44" s="107"/>
+      <c r="AQ44" s="107"/>
+      <c r="AR44" s="107"/>
+      <c r="AS44" s="107"/>
+      <c r="AT44" s="107"/>
+      <c r="AU44" s="107"/>
+      <c r="AV44" s="107"/>
+      <c r="AW44" s="107"/>
+      <c r="AX44" s="107"/>
+      <c r="AY44" s="107"/>
+      <c r="AZ44" s="107"/>
+      <c r="BA44" s="107"/>
+      <c r="BB44" s="107"/>
+      <c r="BC44" s="107"/>
+      <c r="BD44" s="107"/>
+      <c r="BE44" s="107"/>
+      <c r="BF44" s="107"/>
+      <c r="BG44" s="107"/>
+      <c r="BH44" s="107"/>
+      <c r="BI44" s="107"/>
+      <c r="BJ44" s="107"/>
+      <c r="BK44" s="107"/>
+      <c r="BL44" s="107"/>
+      <c r="BM44" s="107"/>
+      <c r="BN44" s="107"/>
+    </row>
+    <row r="45" spans="1:66" s="33" customFormat="1">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="31"/>
+      <c r="AL45" s="31"/>
+      <c r="AM45" s="31"/>
+      <c r="AN45" s="31"/>
+      <c r="AO45" s="31"/>
+      <c r="AP45" s="31"/>
+      <c r="AQ45" s="31"/>
+      <c r="AR45" s="31"/>
+      <c r="AS45" s="31"/>
+      <c r="AT45" s="31"/>
+      <c r="AU45" s="31"/>
+      <c r="AV45" s="31"/>
+      <c r="AW45" s="31"/>
+      <c r="AX45" s="31"/>
+      <c r="AY45" s="31"/>
+      <c r="AZ45" s="31"/>
+      <c r="BA45" s="31"/>
+      <c r="BB45" s="31"/>
+      <c r="BC45" s="31"/>
+      <c r="BD45" s="31"/>
+      <c r="BE45" s="31"/>
+      <c r="BF45" s="31"/>
+      <c r="BG45" s="31"/>
+      <c r="BH45" s="31"/>
+      <c r="BI45" s="31"/>
+      <c r="BJ45" s="31"/>
+      <c r="BK45" s="31"/>
+      <c r="BL45" s="31"/>
+      <c r="BM45" s="31"/>
+      <c r="BN45" s="31"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7587,10 +7939,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H19 H28:H41">
-    <cfRule type="dataBar" priority="18">
+  <conditionalFormatting sqref="H28:H29 H31 H33:H44 H8:H19">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7604,25 +7965,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="15" priority="61">
+    <cfRule type="expression" dxfId="9" priority="69">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN19 K28:BN41">
-    <cfRule type="expression" dxfId="14" priority="64">
+  <conditionalFormatting sqref="K8:BN44">
+    <cfRule type="expression" dxfId="8" priority="72">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="65">
+    <cfRule type="expression" dxfId="7" priority="73">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN19 K28:BN41">
-    <cfRule type="expression" dxfId="12" priority="24">
+  <conditionalFormatting sqref="K28:BN29 K31:BN31 K33:BN44 K6:BN19">
+    <cfRule type="expression" dxfId="6" priority="32">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7636,20 +7997,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>AND($E20&lt;=K$6,ROUNDDOWN(($F20-$E20+1)*$H20,0)+$E20-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>AND(NOT(ISBLANK($E20)),$E20&lt;=K$6,$F20&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7663,20 +8016,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN23">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN23">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7690,20 +8035,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H27">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7717,39 +8054,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN27">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E25&lt;=K$6,ROUNDDOWN(($F25-$E25+1)*$H25,0)+$E25-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E25)),$E25&lt;=K$6,$F25&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:BN27">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F246A689-BC01-5441-8510-2D114B94E79C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{477BC6E4-CF87-B340-936D-D89256F6B775}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K1:AE1" r:id="rId1" display="Gantt Chart Template © 2006-2018 by Vertex42.com." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K1:AE1" r:id="rId1" display="Gantt Chart Template © 2006-2018 by Vertex42.com."/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="63" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A34:B35 G13 A37:B37 B36 E15 E28 E34:H37 G15:H15 G28:H28 H19 G38 G39:G40 G41 H17 H18 H29:H32" unlockedFormula="1"/>
-    <ignoredError sqref="A28 A15" formula="1"/>
+    <ignoredError sqref="A37:B38 A40:B40 B39 E14 E28 E37:H40 G14:H14 G28:H28 H19 G41:G44 H17 H33:H35 H29" unlockedFormula="1"/>
+    <ignoredError sqref="A28 A14" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="8238" r:id="rId5" name="Scroll Bar 46">
+            <control shapeId="8238" r:id="rId4" name="Scroll Bar 46">
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7768,9 +8135,11 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -7788,7 +8157,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H19 H28:H41</xm:sqref>
+          <xm:sqref>H28:H29 H31 H33:H44 H8:H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2513D63A-B799-F142-A621-DC47E8FDEFFA}">
@@ -7850,15 +8219,48 @@
           </x14:cfRule>
           <xm:sqref>H25:H27</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F246A689-BC01-5441-8510-2D114B94E79C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{477BC6E4-CF87-B340-936D-D89256F6B775}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G46"/>
@@ -7867,7 +8269,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="16" customWidth="1"/>
@@ -7877,191 +8279,196 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" ht="18">
+    <row r="7" spans="1:3" ht="17">
       <c r="C7" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
       <c r="C13" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="16" customFormat="1"/>
-    <row r="18" spans="2:2" ht="14">
+    <row r="18" spans="2:2" ht="13">
       <c r="B18" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="16" customFormat="1" ht="13">
+      <c r="B22" s="26" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="16" customFormat="1" ht="14">
-      <c r="B22" s="26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="16" customFormat="1">
       <c r="B23" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="16" customFormat="1">
       <c r="B24" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" s="16" customFormat="1" ht="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" s="16" customFormat="1" ht="13">
       <c r="B26" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="16" customFormat="1">
       <c r="B27" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="16" customFormat="1">
       <c r="B28" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="13">
+      <c r="B34" s="26" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="14">
-      <c r="B34" s="26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="14">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="13">
       <c r="B39" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" s="16" customFormat="1" ht="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" s="16" customFormat="1" ht="13">
       <c r="B42" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="16" customFormat="1">
       <c r="B43" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="16" customFormat="1">
       <c r="B44" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="16" customFormat="1"/>
-    <row r="46" spans="2:2" ht="18">
+    <row r="46" spans="2:2" ht="17">
       <c r="B46" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B46" r:id="rId2" tooltip="Go to Vertex42.com" display="https://www.vertex42.com/Links/go.php?urlid=GanttChartPro" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId3" display="https://www.vertex42.com/blog/business/pm/new-gantt-chart-for-excel-online.html" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="B46" r:id="rId2" tooltip="Go to Vertex42.com" display="https://www.vertex42.com/Links/go.php?urlid=GanttChartPro"/>
+    <hyperlink ref="C13" r:id="rId3" display="https://www.vertex42.com/blog/business/pm/new-gantt-chart-for-excel-online.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup scale="93" orientation="portrait"/>
+  <drawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="90.5" style="7" customWidth="1"/>
@@ -8071,14 +8478,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" spans="1:3" ht="14">
+    <row r="2" spans="1:3" ht="13">
       <c r="A2" s="138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -8088,484 +8495,484 @@
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="18">
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A4" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="39"/>
+    </row>
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="39">
+      <c r="B5" s="139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26">
+      <c r="B7" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="39"/>
-    </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="56">
-      <c r="B5" s="139" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28">
-      <c r="B7" s="139" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14">
+    </row>
+    <row r="9" spans="1:3" ht="13">
       <c r="B9" s="138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26">
+      <c r="B11" s="137" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28">
-      <c r="B11" s="137" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="12" spans="1:3" s="20" customFormat="1"/>
-    <row r="13" spans="1:3" ht="18">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="172"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1"/>
-    <row r="15" spans="1:3" s="134" customFormat="1" ht="18">
+    <row r="15" spans="1:3" s="134" customFormat="1" ht="17">
       <c r="A15" s="142"/>
       <c r="B15" s="140" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="134" customFormat="1" ht="18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="134" customFormat="1" ht="17">
       <c r="A16" s="142"/>
       <c r="B16" s="141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="136" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17">
       <c r="A17" s="143"/>
       <c r="B17" s="141" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="20" customFormat="1" ht="18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="20" customFormat="1" ht="17">
       <c r="A18" s="143"/>
       <c r="B18" s="141" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="42" customFormat="1" ht="18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="42" customFormat="1" ht="17">
       <c r="A19" s="146"/>
       <c r="B19" s="141" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="134" customFormat="1" ht="18">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="134" customFormat="1" ht="17">
       <c r="A20" s="142"/>
       <c r="B20" s="140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17">
       <c r="A21" s="143"/>
       <c r="B21" s="141" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A22" s="144"/>
       <c r="B22" s="145" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A23" s="144"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="18">
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A24" s="172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="172"/>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="42">
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="39">
       <c r="A25" s="144"/>
       <c r="B25" s="141" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A26" s="144"/>
       <c r="B26" s="141"/>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="18">
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A27" s="144"/>
       <c r="B27" s="162" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A28" s="144"/>
       <c r="B28" s="141" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="26">
       <c r="A29" s="144"/>
       <c r="B29" s="141" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A30" s="144"/>
       <c r="B30" s="141"/>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="18">
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A31" s="144"/>
       <c r="B31" s="162" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="17">
       <c r="A32" s="144"/>
       <c r="B32" s="141" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="17">
       <c r="A33" s="144"/>
       <c r="B33" s="141" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="17">
       <c r="A34" s="144"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="28">
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="26">
       <c r="A35" s="144"/>
       <c r="B35" s="141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="18">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="17">
       <c r="A36" s="144"/>
       <c r="B36" s="147" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="17">
       <c r="A37" s="144"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:2" ht="18">
+    <row r="38" spans="1:2" ht="17">
       <c r="A38" s="172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="172"/>
     </row>
-    <row r="39" spans="1:2" ht="28">
+    <row r="39" spans="1:2" ht="26">
       <c r="B39" s="141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="20" customFormat="1"/>
+    <row r="41" spans="1:2" s="20" customFormat="1" ht="13">
+      <c r="B41" s="141" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="20" customFormat="1"/>
-    <row r="41" spans="1:2" s="20" customFormat="1" ht="14">
-      <c r="B41" s="141" t="s">
+    <row r="42" spans="1:2" s="20" customFormat="1"/>
+    <row r="43" spans="1:2" s="20" customFormat="1" ht="26">
+      <c r="B43" s="141" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="20" customFormat="1"/>
+    <row r="45" spans="1:2" ht="26">
+      <c r="B45" s="141" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="20" customFormat="1"/>
-    <row r="43" spans="1:2" s="20" customFormat="1" ht="28">
-      <c r="B43" s="141" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="20" customFormat="1"/>
-    <row r="45" spans="1:2" ht="28">
-      <c r="B45" s="141" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:2" ht="28">
+    <row r="47" spans="1:2" ht="26">
       <c r="B47" s="141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="18">
+    <row r="49" spans="1:2" ht="17">
       <c r="A49" s="172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="172"/>
     </row>
-    <row r="50" spans="1:2" ht="28">
+    <row r="50" spans="1:2" ht="26">
       <c r="B50" s="141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="14">
+    <row r="52" spans="1:2" ht="13">
       <c r="A52" s="148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="141" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="13">
+      <c r="A53" s="148" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="14">
-      <c r="A53" s="148" t="s">
+      <c r="B53" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="141" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="13">
+      <c r="A54" s="148" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="14">
-      <c r="A54" s="148" t="s">
+      <c r="B54" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="28">
+    </row>
+    <row r="55" spans="1:2" ht="26">
       <c r="A55" s="137"/>
       <c r="B55" s="141" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="13">
       <c r="A56" s="137"/>
       <c r="B56" s="141" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="13">
       <c r="A57" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="141" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14">
+    </row>
+    <row r="58" spans="1:2" ht="13">
       <c r="A58" s="137"/>
       <c r="B58" s="141" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="13">
       <c r="A59" s="137"/>
       <c r="B59" s="141" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13">
       <c r="A60" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="141" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="28">
+    </row>
+    <row r="61" spans="1:2" ht="26">
       <c r="A61" s="137"/>
       <c r="B61" s="141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="13">
+      <c r="A62" s="148" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="14">
-      <c r="A62" s="148" t="s">
+      <c r="B62" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="141" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14">
+    </row>
+    <row r="63" spans="1:2" ht="13">
       <c r="A63" s="149"/>
       <c r="B63" s="141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="20" customFormat="1">
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="1:2" s="20" customFormat="1" ht="18">
+    <row r="65" spans="1:2" s="20" customFormat="1" ht="17">
       <c r="A65" s="172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" s="172"/>
     </row>
-    <row r="66" spans="1:2" s="20" customFormat="1" ht="42">
+    <row r="66" spans="1:2" s="20" customFormat="1" ht="39">
       <c r="B66" s="141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="20" customFormat="1">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="1:2" s="8" customFormat="1" ht="18">
+    <row r="68" spans="1:2" s="8" customFormat="1" ht="17">
       <c r="A68" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="172"/>
+    </row>
+    <row r="69" spans="1:2" s="20" customFormat="1" ht="13">
+      <c r="A69" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="172"/>
-    </row>
-    <row r="69" spans="1:2" s="20" customFormat="1" ht="14">
-      <c r="A69" s="156" t="s">
-        <v>8</v>
-      </c>
       <c r="B69" s="157" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="28">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="8" customFormat="1" ht="26">
       <c r="A70" s="150"/>
       <c r="B70" s="155" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="8" customFormat="1" ht="13">
       <c r="A71" s="150"/>
       <c r="B71" s="151"/>
     </row>
-    <row r="72" spans="1:2" s="20" customFormat="1" ht="14">
+    <row r="72" spans="1:2" s="20" customFormat="1" ht="13">
       <c r="A72" s="156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" s="157" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="28">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="26">
       <c r="A73" s="150"/>
       <c r="B73" s="155" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="13">
       <c r="A74" s="150"/>
       <c r="B74" s="151"/>
     </row>
-    <row r="75" spans="1:2" ht="14">
+    <row r="75" spans="1:2" ht="13">
       <c r="A75" s="156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="159" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="28">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="26">
       <c r="A76" s="150"/>
       <c r="B76" s="139" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="13">
       <c r="A77" s="149"/>
       <c r="B77" s="149"/>
     </row>
-    <row r="78" spans="1:2" s="20" customFormat="1" ht="14">
+    <row r="78" spans="1:2" s="20" customFormat="1" ht="13">
       <c r="A78" s="156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="159" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="8" customFormat="1" ht="26">
       <c r="A79" s="150"/>
       <c r="B79" s="139" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="20" customFormat="1" ht="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="20" customFormat="1" ht="13">
       <c r="A80" s="149"/>
       <c r="B80" s="149"/>
     </row>
-    <row r="81" spans="1:2" ht="14">
+    <row r="81" spans="1:2" ht="13">
       <c r="A81" s="156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="159" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="13">
       <c r="A82" s="150"/>
       <c r="B82" s="154" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="13">
       <c r="A83" s="150"/>
       <c r="B83" s="154" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="13">
       <c r="A84" s="150"/>
       <c r="B84" s="154" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="13">
       <c r="A85" s="149"/>
       <c r="B85" s="153"/>
     </row>
-    <row r="86" spans="1:2" ht="14">
+    <row r="86" spans="1:2" ht="13">
       <c r="A86" s="156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="159" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="42">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="39">
       <c r="A87" s="150"/>
       <c r="B87" s="139" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="13">
       <c r="A88" s="150"/>
       <c r="B88" s="152" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="8" customFormat="1" ht="42">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="39">
       <c r="A89" s="150"/>
       <c r="B89" s="158" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="13">
       <c r="A90" s="149"/>
       <c r="B90" s="149"/>
     </row>
-    <row r="91" spans="1:2" ht="14">
+    <row r="91" spans="1:2" ht="13">
       <c r="A91" s="156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="161" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="28">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="26">
       <c r="A92" s="137"/>
       <c r="B92" s="154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8579,27 +8986,32 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B36" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="82.1640625" style="20" customWidth="1"/>
@@ -8608,124 +9020,124 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="42"/>
       <c r="B2" s="46"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="43"/>
       <c r="B3" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="44"/>
     </row>
-    <row r="4" spans="1:4" ht="14">
+    <row r="4" spans="1:4" ht="13">
       <c r="A4" s="14"/>
       <c r="B4" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="32">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="48">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" ht="48">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="16">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="48">
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="32">
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="16">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="14"/>
       <c r="B19" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="16">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
       <c r="C20" s="15"/>
@@ -8777,11 +9189,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>